--- a/biology/Zoologie/Ascalaphe_(insecte)/Ascalaphe_(insecte).xlsx
+++ b/biology/Zoologie/Ascalaphe_(insecte)/Ascalaphe_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Libelloides
 Le genre Libelloides regroupe les « ascalaphes » rattachés précédemment au genre Ascalaphus. Ce sont des insectes névroptères de la famille des ascalaphidés.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ascalaphes présentent un corps trapu, leurs antennes sont longues, à l'extrémité en massue. Les mâles ont des valves très développées.
 Diurnes, au vol rapide et ondoyant à 2 ou 3 mètres de hauteur, ils capturent les mouches et autres petits insectes en vol.
@@ -547,12 +561,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Le genre Libelloides, sur Wikimedia Commons
-Selon BioLib                    (11 décembre 2021)[1] :
+Selon BioLib                    (11 décembre 2021) :
 Libelloides baeticus (Rambur, 1842)
 Libelloides coccajus (Denis et Schiffermüller, 1775) - l'ascalaphe soufré
 Libelloides cunii Sélys-Longchamps, 1880
